--- a/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_7_regions_PaleA.xlsx
+++ b/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_7_regions_PaleA.xlsx
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>46</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -6000,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="b">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -10486,7 +10486,7 @@
         <v>219</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" t="b">
         <v>1</v>
@@ -11012,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="b">
         <v>0</v>
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H305" t="b">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" t="b">
         <v>0</v>
@@ -14285,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -14360,7 +14360,7 @@
         <v>368</v>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="b">
         <v>0</v>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H386" t="b">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H398" t="b">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="b">
         <v>0</v>
@@ -16732,19 +16732,19 @@
         <v>0</v>
       </c>
       <c r="D453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453" t="b">
         <v>0</v>
       </c>
       <c r="F453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G453" t="b">
         <v>0</v>
       </c>
       <c r="H453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="C522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522" t="b">
         <v>1</v>
@@ -18555,7 +18555,7 @@
         <v>0</v>
       </c>
       <c r="E523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F523" t="b">
         <v>1</v>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F530" t="b">
         <v>1</v>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -19852,7 +19852,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="b">
         <v>0</v>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575" t="b">
         <v>1</v>
@@ -21441,7 +21441,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F634" t="b">
         <v>1</v>
@@ -21499,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="G636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H636" t="b">
         <v>0</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="E707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F707" t="b">
         <v>1</v>
@@ -23839,7 +23839,7 @@
         <v>0</v>
       </c>
       <c r="G726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H726" t="b">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="G756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H756" t="b">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E774" t="b">
         <v>0</v>
@@ -25945,7 +25945,7 @@
         <v>0</v>
       </c>
       <c r="G807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H807" t="b">
         <v>0</v>
@@ -26595,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="G832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H832" t="b">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F878" t="b">
         <v>1</v>
@@ -28490,7 +28490,7 @@
         <v>1</v>
       </c>
       <c r="F905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G905" t="b">
         <v>0</v>
@@ -28516,7 +28516,7 @@
         <v>1</v>
       </c>
       <c r="F906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G906" t="b">
         <v>0</v>
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F926" t="b">
         <v>1</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="D941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E941" t="b">
         <v>0</v>
@@ -32020,7 +32020,7 @@
         <v>1</v>
       </c>
       <c r="D1041" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1041" t="b">
         <v>0</v>
@@ -32196,7 +32196,7 @@
         <v>1054</v>
       </c>
       <c r="B1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1048" t="b">
         <v>0</v>
@@ -32407,7 +32407,7 @@
         <v>0</v>
       </c>
       <c r="C1056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1056" t="b">
         <v>1</v>
@@ -32852,7 +32852,7 @@
         <v>1</v>
       </c>
       <c r="D1073" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1073" t="b">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>0</v>
       </c>
       <c r="E1125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1125" t="b">
         <v>1</v>
@@ -34571,7 +34571,7 @@
         <v>0</v>
       </c>
       <c r="E1139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1139" t="b">
         <v>1</v>
@@ -35195,7 +35195,7 @@
         <v>0</v>
       </c>
       <c r="E1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1163" t="b">
         <v>1</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1184" t="b">
         <v>1</v>
@@ -36076,7 +36076,7 @@
         <v>0</v>
       </c>
       <c r="D1197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1197" t="b">
         <v>0</v>
@@ -36140,7 +36140,7 @@
         <v>0</v>
       </c>
       <c r="H1199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -36322,7 +36322,7 @@
         <v>0</v>
       </c>
       <c r="H1206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -36339,7 +36339,7 @@
         <v>0</v>
       </c>
       <c r="E1207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1207" t="b">
         <v>1</v>
@@ -36498,7 +36498,7 @@
         <v>1</v>
       </c>
       <c r="F1213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1213" t="b">
         <v>0</v>
@@ -36642,16 +36642,16 @@
         <v>1225</v>
       </c>
       <c r="B1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1219" t="b">
         <v>0</v>
       </c>
       <c r="D1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1219" t="b">
         <v>1</v>
@@ -36723,7 +36723,7 @@
         <v>0</v>
       </c>
       <c r="C1222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1222" t="b">
         <v>1</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="E1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1223" t="b">
         <v>1</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="E1232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1232" t="b">
         <v>1</v>
@@ -37061,7 +37061,7 @@
         <v>0</v>
       </c>
       <c r="C1235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1235" t="b">
         <v>1</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="E1238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1238" t="b">
         <v>1</v>
@@ -37168,7 +37168,7 @@
         <v>1</v>
       </c>
       <c r="D1239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1239" t="b">
         <v>0</v>
@@ -37246,7 +37246,7 @@
         <v>1</v>
       </c>
       <c r="D1242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1242" t="b">
         <v>0</v>
@@ -37411,7 +37411,7 @@
         <v>0</v>
       </c>
       <c r="G1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1248" t="b">
         <v>0</v>
@@ -37477,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="C1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1251" t="b">
         <v>0</v>
@@ -37492,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="H1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -37506,7 +37506,7 @@
         <v>1</v>
       </c>
       <c r="D1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1252" t="b">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>1263</v>
       </c>
       <c r="B1257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1257" t="b">
         <v>1</v>
@@ -37778,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="H1262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -37818,7 +37818,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1264" t="b">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="E1266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1266" t="b">
         <v>1</v>
@@ -38390,7 +38390,7 @@
         <v>1</v>
       </c>
       <c r="D1286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1286" t="b">
         <v>0</v>
@@ -38592,7 +38592,7 @@
         <v>1300</v>
       </c>
       <c r="B1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1294" t="b">
         <v>1</v>
@@ -38610,7 +38610,7 @@
         <v>0</v>
       </c>
       <c r="H1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -39728,7 +39728,7 @@
         <v>0</v>
       </c>
       <c r="H1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -39777,7 +39777,7 @@
         <v>0</v>
       </c>
       <c r="G1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1339" t="b">
         <v>0</v>
@@ -40707,7 +40707,7 @@
         <v>0</v>
       </c>
       <c r="E1375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1375" t="b">
         <v>0</v>
@@ -41256,7 +41256,7 @@
         <v>1</v>
       </c>
       <c r="F1396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1396" t="b">
         <v>0</v>
@@ -41296,7 +41296,7 @@
         <v>1404</v>
       </c>
       <c r="B1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1398" t="b">
         <v>1</v>
@@ -41507,7 +41507,7 @@
         <v>0</v>
       </c>
       <c r="C1406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1406" t="b">
         <v>1</v>
@@ -41643,7 +41643,7 @@
         <v>0</v>
       </c>
       <c r="E1411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1411" t="b">
         <v>0</v>
@@ -41744,7 +41744,7 @@
         <v>1</v>
       </c>
       <c r="D1415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1415" t="b">
         <v>0</v>
@@ -41981,7 +41981,7 @@
         <v>0</v>
       </c>
       <c r="E1424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1424" t="b">
         <v>0</v>
@@ -42108,7 +42108,7 @@
         <v>1</v>
       </c>
       <c r="D1429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1429" t="b">
         <v>0</v>
@@ -42417,7 +42417,7 @@
         <v>0</v>
       </c>
       <c r="C1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1441" t="b">
         <v>1</v>
@@ -42429,7 +42429,7 @@
         <v>0</v>
       </c>
       <c r="G1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1441" t="b">
         <v>0</v>
